--- a/data/importance_random_forest.xlsx
+++ b/data/importance_random_forest.xlsx
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dayoftheweek</t>
+          <t>ordenador_yes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08076126117646214</v>
+        <v>0.08141354960912868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>otrofactor_no</t>
+          <t>bienestar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06492555190317967</v>
+        <v>0.07842240358324065</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bienestar</t>
+          <t>otrofactor_no</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05728992977958112</v>
+        <v>0.07753950972393329</v>
       </c>
     </row>
     <row r="5">
@@ -482,387 +482,387 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04755727016808416</v>
+        <v>0.06169620770360799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ordenador_yes</t>
+          <t>dayoftheweek</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04655872027340342</v>
+        <v>0.05448110837421155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Totaltime</t>
+          <t>µgm3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02553349320587388</v>
+        <v>0.02408588225680681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ID_Zenodo</t>
+          <t>otrofactor_yes</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02505443993518738</v>
+        <v>0.02377700803100805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>µgm3</t>
+          <t>end_day</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02311353256646163</v>
+        <v>0.02224242007772064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>otrofactor_yes</t>
+          <t>inhib_control</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02185762414726757</v>
+        <v>0.02187296105118103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>inhib_control</t>
+          <t>Totaltime</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02017162306847537</v>
+        <v>0.01939251609393862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>no2gps_12h</t>
+          <t>ID_Zenodo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01915623098982078</v>
+        <v>0.01871437686753768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>end_day</t>
+          <t>z_inhib_control</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01731969684233985</v>
+        <v>0.017258793486431</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sec_noise55_day</t>
+          <t>covid_motor</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01682319523782434</v>
+        <v>0.01712146108211804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>z_inhib_control</t>
+          <t>mean_congruent</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01670126995779548</v>
+        <v>0.01638390985097426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mean_congruent</t>
+          <t>pressure_24h</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01614001837018598</v>
+        <v>0.01637474089975764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>humi_24h</t>
+          <t>no2gps_12h</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01585050982472571</v>
+        <v>0.01532258535317939</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>sueno</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01496378834275637</v>
+        <v>0.01515009934711219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sueno</t>
+          <t>humi_24h</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01492672383294198</v>
+        <v>0.01491637406553391</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pressure_24h</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01448343083328721</v>
+        <v>0.013651605982142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>humi_12h</t>
+          <t>z_performance</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01403026862678984</v>
+        <v>0.01253994427812917</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>energia</t>
+          <t>humi_12h</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01378766192354448</v>
+        <v>0.01230014895398426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>z_performance</t>
+          <t>sec_noise55_day</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01363070219236379</v>
+        <v>0.01228956359389077</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>no2bcn_12h</t>
+          <t>tmean_24h</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01354902390354541</v>
+        <v>0.01186188865914334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>horasfuera</t>
+          <t>age_yrs</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01328698413240179</v>
+        <v>0.01182095039286065</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>age_yrs</t>
+          <t>pm25bcn</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01326265087565318</v>
+        <v>0.011703715174421</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tmean_24h</t>
+          <t>day</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0131252879745588</v>
+        <v>0.01104868992951453</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tmean_12h</t>
+          <t>horasfuera</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.012392394093162</v>
+        <v>0.01056728019838295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>yearbirth</t>
+          <t>tmean_12h</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0118481872223671</v>
+        <v>0.01054085285988935</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>occurrence_mental</t>
+          <t>covid_work</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01151086509406646</v>
+        <v>0.01052592858544348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>z_mean_incongruent</t>
+          <t>occurrence_stroop</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01106778953921917</v>
+        <v>0.01049692644239847</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>yearbirth</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01065666817155099</v>
+        <v>0.009942505484451107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pressure_12h</t>
+          <t>no2bcn_12h</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01045237143453524</v>
+        <v>0.009901470327858456</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>occurrence_stroop</t>
+          <t>Houroff_minute</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01031433264391657</v>
+        <v>0.009819915354200901</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sec_noise65_day</t>
+          <t>z_mean_incongruent</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01007396694491123</v>
+        <v>0.009671719228125739</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>no2bcn_12h_x30</t>
+          <t>sec_noise65_day</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.009595775717223648</v>
+        <v>0.009619082030163676</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pm25bcn</t>
+          <t>min_gps</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.009551568683521989</v>
+        <v>0.009540294931343124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Houroff_minute</t>
+          <t>no2bcn_12h_x30</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.008963729603930975</v>
+        <v>0.009268509945457562</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>pressure_12h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.008835469152522599</v>
+        <v>0.008423632785128346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>district_horta-guinardo</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.008712786325038946</v>
+        <v>0.008048962083696598</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>start_day</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.008612977901508225</v>
+        <v>0.007563170699749362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>covid_work</t>
+          <t>occurrence_mental</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.008456760707671566</v>
+        <v>0.007512898094838288</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>no2gps_12h_x30</t>
+          <t>start_day</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.008442869898606103</v>
+        <v>0.007156990838922926</v>
       </c>
     </row>
     <row r="44">
@@ -872,107 +872,107 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.008145535634040682</v>
+        <v>0.006954991943513671</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>min_gps</t>
+          <t>Houron_minute</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.008085546292547131</v>
+        <v>0.006894788036483347</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Houron_hour</t>
+          <t>no2bcn_24h_x30</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.007878772903944089</v>
+        <v>0.006716473016239805</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>covid_motor</t>
+          <t>Houroff_hour</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.007500946363939644</v>
+        <v>0.00664432990484524</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>no2bcn_24h_x30</t>
+          <t>no2bcn_24h</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.007384909808730313</v>
+        <v>0.006631335680825578</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Houron_minute</t>
+          <t>sec_greenblue_day</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.007338254248204332</v>
+        <v>0.006332339142672764</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>covid_sleep</t>
+          <t>end_hour</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.007003872736215792</v>
+        <v>0.006217243997747963</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Houroff_hour</t>
+          <t>BCμg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.007003357508736396</v>
+        <v>0.006056037621871842</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>no2gps_24h</t>
+          <t>covid_mood</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.006943216236786726</v>
+        <v>0.005824499166461365</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sec_greenblue_day</t>
+          <t>Houron_hour</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.00679558814025512</v>
+        <v>0.005777936700652962</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>no2bcn_24h</t>
+          <t>response_duration_ms</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.006486280168496273</v>
+        <v>0.005019681842699429</v>
       </c>
     </row>
     <row r="55">
@@ -982,477 +982,477 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.006119632476874842</v>
+        <v>0.004837075307697898</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>covid_mood</t>
+          <t>mean_incongruent</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.006093815549151458</v>
+        <v>0.004698652873443713</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCμg</t>
+          <t>covid_sleep</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.005727527119591336</v>
+        <v>0.004544534204566879</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>response_duration_ms</t>
+          <t>no2gps_24h</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.005606551166773616</v>
+        <v>0.00449278344769746</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>end_hour</t>
+          <t>no2gps_12h_x30</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.005453756575421867</v>
+        <v>0.004352863839559637</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>start_hour</t>
+          <t>covid_bikewalk</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.005420792349035387</v>
+        <v>0.00410432766412084</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>covid_public_trans</t>
+          <t>start_hour</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.005145382472919941</v>
+        <v>0.003800488329873389</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mean_incongruent</t>
+          <t>hour_gps</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.004985830322782334</v>
+        <v>0.003613681174016124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>covid_electric</t>
+          <t>gender_hombre</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.004353465397740946</v>
+        <v>0.003105056240909421</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>hour_gps</t>
+          <t>covid_public_trans</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.003775822088199827</v>
+        <v>0.002914917059565512</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>gender_hombre</t>
+          <t>district_horta-guinardo</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.003551323893171504</v>
+        <v>0.002677484169716454</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>district_sant andreu</t>
+          <t>actividadfisica_no</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.002825585945550496</v>
+        <v>0.002410435010527495</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>hours_noise_55_day</t>
+          <t>district_eixample</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.002327077694430862</v>
+        <v>0.002352550111556903</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff_no</t>
+          <t>incidence_cat_no incidence</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.00229527583701316</v>
+        <v>0.002121380990682531</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>covid_electric</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.002245339913657908</v>
+        <v>0.002106292733031936</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>incidence_cat_no incidence</t>
+          <t>end_month</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.002204582446218448</v>
+        <v>0.001929108247959976</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>actividadfisica_no</t>
+          <t>dieta_yes</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.002084396005040155</v>
+        <v>0.001707447749866004</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>gender_mujer</t>
+          <t>district_sant andreu</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001977129558085195</v>
+        <v>0.001637860577985787</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>covid_bikewalk</t>
+          <t>district_sant martí</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001934037815654432</v>
+        <v>0.001569161718800685</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>start_month</t>
+          <t>dieta_no</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.001856286643149675</v>
+        <v>0.001568371511996261</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>district_ciutat vella</t>
+          <t>access_greenbluespaces_300mbuff_no</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.001766577597376838</v>
+        <v>0.001549952735553105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>covid_espacios</t>
+          <t>gender_mujer</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001693564543392621</v>
+        <v>0.0015476894936213</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>covid_aire</t>
+          <t>access_greenbluespaces_300mbuff_yes</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001545250901414718</v>
+        <v>0.001531923491320955</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>smoke_no</t>
+          <t>covid_aire</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.001531712383333267</v>
+        <v>0.001411155950115169</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff_yes</t>
+          <t>incidence_cat_mobility incidence</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001512438657912181</v>
+        <v>0.001404653366620535</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>incidence_cat_physical incidence</t>
+          <t>actividadfisica_yes</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.001383986951189507</v>
+        <v>0.001329528707629711</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dieta_yes</t>
+          <t>covid_espacios</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001273405400212734</v>
+        <v>0.001327419342211846</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>incidence_cat_physical incidence</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.001266322105865191</v>
+        <v>0.001246050162224739</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>smoke_yes</t>
+          <t>hours_noise_65_day</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.00126011002732567</v>
+        <v>0.001125430339289809</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>bebida_yes</t>
+          <t>hours_noise_55_day</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.001209098492758365</v>
+        <v>0.001050010114933587</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>district_eixample</t>
+          <t>district_ciutat vella</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.001196511624787967</v>
+        <v>0.001022678102678886</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>actividadfisica_yes</t>
+          <t>month</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.001152380574485973</v>
+        <v>0.0009591346709426604</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>enfermo_no</t>
+          <t>enfermo_yes</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.001152173925565052</v>
+        <v>0.000934595253474221</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>district_sant martí</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.001081005981275142</v>
+        <v>0.0009148982257304745</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>end_month</t>
+          <t>bebida_no</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0009876976710420098</v>
+        <v>0.0008878729486357113</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bebida_no</t>
+          <t>start_month</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0009693565425006632</v>
+        <v>0.0008775081877859197</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>incidence_cat_mobility incidence</t>
+          <t>bebida_yes</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0009281691265876117</v>
+        <v>0.0008631396187196829</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dieta_no</t>
+          <t>alcohol_no</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0008989611698010045</v>
+        <v>0.0008543964985637023</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>psycho_yes</t>
+          <t>alcohol_yes</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0008813527405059816</v>
+        <v>0.0008062456896892667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>alcohol_yes</t>
+          <t>smoke_no</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0008316619438569983</v>
+        <v>0.0007960937377354575</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>enfermo_yes</t>
+          <t>smoke_yes</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0007672005477110771</v>
+        <v>0.0007354100464011717</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Totaltime_estimated_yes</t>
+          <t>enfermo_no</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0007565047664231802</v>
+        <v>0.0007178820780093301</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>alcohol_no</t>
+          <t>psycho_yes</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0007328598665485573</v>
+        <v>0.0006973242222500812</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hours_noise_65_day</t>
+          <t>Totaltime_estimated_yes</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0005738906685776528</v>
+        <v>0.000659164793111265</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>psycho_no</t>
+          <t>Totaltime_estimated_no</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0005586815820028238</v>
+        <v>0.0006367615300607414</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>district_sarria sant-gervasi</t>
+          <t>psycho_no</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0005375636280826106</v>
+        <v>0.0005289567251755155</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Totaltime_estimated_no</t>
+          <t>district_16</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0005356173178517595</v>
+        <v>0.0005054961088209866</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>district_sants-montjuïc</t>
+          <t>district_nou barris</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0003571477754651215</v>
+        <v>0.0004635669237307441</v>
       </c>
     </row>
     <row r="103">
@@ -1462,27 +1462,27 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0002183832811087572</v>
+        <v>0.0004091836773584452</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>district_16</t>
+          <t>district_sarria sant-gervasi</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0002172155841302596</v>
+        <v>0.0002881225726244647</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>district_nou barris</t>
+          <t>district_sants-montjuïc</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.000183611718394374</v>
+        <v>0.0002653192892060404</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7.970806924117194e-05</v>
+        <v>2.894453141247465e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1502,43 +1502,43 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>6.058230264894507e-05</v>
+        <v>2.38298555532977e-05</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>start_year</t>
+          <t>drogas_no</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1.093382955019164e-06</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>maxwindspeed_12h</t>
+          <t>district_les corts</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>9.901952904871934e-07</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>noise_total_LDEN_55</t>
+          <t>mentalhealth_survey_yes</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>8.931014168337208e-07</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>precip_24h</t>
+          <t>noise_total_LDEN_55</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>precip_12h</t>
+          <t>start_year</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>precip_12h_binary</t>
+          <t>maxwindspeed_12h</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>end_year</t>
+          <t>precip_24h</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>drogas_no</t>
+          <t>precip_12h</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>district_les corts</t>
+          <t>precip_12h_binary</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mentalhealth_survey_yes</t>
+          <t>end_year</t>
         </is>
       </c>
       <c r="B122" t="n">
